--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -546,34 +546,34 @@
         <v>0.5534398610532348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N2">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q2">
-        <v>0.02909691044555556</v>
+        <v>0.02929378810555556</v>
       </c>
       <c r="R2">
-        <v>0.2618721940100001</v>
+        <v>0.26364409295</v>
       </c>
       <c r="S2">
-        <v>0.01590282090889319</v>
+        <v>0.01600731151777644</v>
       </c>
       <c r="T2">
-        <v>0.0159028209088932</v>
+        <v>0.01600731151777644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>1.264165</v>
       </c>
       <c r="O3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q3">
         <v>0.1665902590722222</v>
@@ -632,10 +632,10 @@
         <v>1.49931233165</v>
       </c>
       <c r="S3">
-        <v>0.09104935935204535</v>
+        <v>0.09103166047310936</v>
       </c>
       <c r="T3">
-        <v>0.09104935935204536</v>
+        <v>0.09103166047310939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q4">
         <v>0.816925005788889</v>
@@ -694,10 +694,10 @@
         <v>7.352325052100001</v>
       </c>
       <c r="S4">
-        <v>0.4464876807922962</v>
+        <v>0.446400889062349</v>
       </c>
       <c r="T4">
-        <v>0.4464876807922963</v>
+        <v>0.446400889062349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,34 +732,34 @@
         <v>0.4465601389467652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N5">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q5">
-        <v>0.02347774579655556</v>
+        <v>0.02363660265055556</v>
       </c>
       <c r="R5">
-        <v>0.211299712169</v>
+        <v>0.212729423855</v>
       </c>
       <c r="S5">
-        <v>0.01283168491190008</v>
+        <v>0.01291599640462981</v>
       </c>
       <c r="T5">
-        <v>0.01283168491190008</v>
+        <v>0.01291599640462981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>1.264165</v>
       </c>
       <c r="O6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q6">
         <v>0.1344185239872222</v>
@@ -818,10 +818,10 @@
         <v>1.209766715885</v>
       </c>
       <c r="S6">
-        <v>0.07346600312793947</v>
+        <v>0.07345172223783189</v>
       </c>
       <c r="T6">
-        <v>0.07346600312793947</v>
+        <v>0.07345172223783189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q7">
         <v>0.6591613104988889</v>
@@ -880,10 +880,10 @@
         <v>5.93245179449</v>
       </c>
       <c r="S7">
-        <v>0.3602624509069257</v>
+        <v>0.3601924203043036</v>
       </c>
       <c r="T7">
-        <v>0.3602624509069257</v>
+        <v>0.3601924203043035</v>
       </c>
     </row>
   </sheetData>
